--- a/models/test/input.xlsx
+++ b/models/test/input.xlsx
@@ -15,7 +15,7 @@
     <sheet name="custmat" sheetId="18" r:id="rId6"/>
     <sheet name="custtruck" sheetId="11" r:id="rId7"/>
     <sheet name="custplant" sheetId="17" r:id="rId8"/>
-    <sheet name="mattruck" sheetId="15" r:id="rId9"/>
+    <sheet name="truckplant" sheetId="21" r:id="rId9"/>
     <sheet name="matplant" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
   <si>
     <t>lot</t>
   </si>
@@ -87,9 +87,6 @@
     <t>sales_qty</t>
   </si>
   <si>
-    <t>truck_avl</t>
-  </si>
-  <si>
     <t>order_priority</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>cost_ratio</t>
   </si>
   <si>
-    <t>plant_avl</t>
-  </si>
-  <si>
     <t>c1_name</t>
   </si>
   <si>
@@ -316,6 +310,21 @@
   </si>
   <si>
     <t>min_weight</t>
+  </si>
+  <si>
+    <t>dos_min</t>
+  </si>
+  <si>
+    <t>dos_max</t>
+  </si>
+  <si>
+    <t>truckplant_avl</t>
+  </si>
+  <si>
+    <t>custplant_avl</t>
+  </si>
+  <si>
+    <t>extraplant_cost</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -680,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +708,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D30" sqref="D30"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,10 +729,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>100000</v>
@@ -731,10 +740,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>100000</v>
@@ -742,10 +751,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -753,10 +762,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>100000</v>
@@ -764,10 +773,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>100000</v>
@@ -775,10 +784,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -786,10 +795,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>100000</v>
@@ -797,10 +806,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>100000</v>
@@ -808,10 +817,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>100000</v>
@@ -819,10 +828,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>100000</v>
@@ -830,10 +839,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -841,10 +850,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>100000</v>
@@ -852,10 +861,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>100000</v>
@@ -863,10 +872,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -874,10 +883,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>100000</v>
@@ -885,10 +894,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>100000</v>
@@ -896,10 +905,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>100000</v>
@@ -907,10 +916,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>100000</v>
@@ -964,10 +973,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
         <v>250</v>
@@ -981,10 +990,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>250</v>
@@ -998,10 +1007,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -1015,10 +1024,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1032,10 +1041,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1049,10 +1058,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1066,10 +1075,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1083,10 +1092,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1100,10 +1109,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2">
         <v>240</v>
@@ -1117,10 +1126,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1134,10 +1143,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -1151,10 +1160,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -1168,10 +1177,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -1185,10 +1194,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -1202,10 +1211,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -1219,10 +1228,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2">
         <v>12</v>
@@ -1236,10 +1245,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -1253,10 +1262,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -1303,66 +1312,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1399,42 +1408,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1479,10 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1495,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>250</v>
@@ -1509,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1150</v>
@@ -1523,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>126</v>
@@ -1537,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>126</v>
@@ -1557,7 +1566,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1567,7 +1576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1578,24 +1587,30 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -1612,13 +1627,19 @@
       <c r="G2">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -1635,13 +1656,19 @@
       <c r="G3">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -1658,13 +1685,19 @@
       <c r="G4">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1681,13 +1714,19 @@
       <c r="G5">
         <v>9.6199999999999992</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -1704,13 +1743,19 @@
       <c r="G6">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -1727,13 +1772,19 @@
       <c r="G7">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1750,13 +1801,19 @@
       <c r="G8">
         <v>1406</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1773,13 +1830,19 @@
       <c r="G9">
         <v>882</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -1796,13 +1859,19 @@
       <c r="G10">
         <v>127.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1819,13 +1888,19 @@
       <c r="G11">
         <v>244.19999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -1842,13 +1917,19 @@
       <c r="G12">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -1865,13 +1946,19 @@
       <c r="G13">
         <v>125.39999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -1887,6 +1974,12 @@
       </c>
       <c r="G14">
         <v>1848</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1994,7 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1918,12 +2011,13 @@
     <col min="5" max="7" width="9" style="2"/>
     <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1934,13 +2028,13 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -1949,21 +2043,24 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>95</v>
@@ -1987,18 +2084,21 @@
         <v>10000</v>
       </c>
       <c r="J2" s="2">
+        <v>500</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>95</v>
@@ -2022,9 +2122,12 @@
         <v>10000</v>
       </c>
       <c r="J3" s="2">
+        <v>500</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2050,7 +2153,9 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2080,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2097,7 +2202,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2108,7 +2213,9 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,18 +2223,18 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -2135,10 +2242,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -2146,10 +2253,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2157,364 +2264,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="2">
         <v>1</v>
       </c>
     </row>
